--- a/data/xlsx/MP.xlsx
+++ b/data/xlsx/MP.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MP_calls" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,110 +19,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>medical_advice</t>
-  </si>
-  <si>
-    <t>counselling</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>number_of</t>
-  </si>
-  <si>
-    <t>total_isolation_beds</t>
-  </si>
-  <si>
-    <t>total_icu_beds</t>
-  </si>
-  <si>
-    <t>total_beds</t>
-  </si>
-  <si>
-    <t>total_ventilators</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>new_positive</t>
-  </si>
-  <si>
-    <t>cumulative_positive</t>
-  </si>
-  <si>
-    <t>new_deaths</t>
-  </si>
-  <si>
-    <t>cumulative_deaths</t>
-  </si>
-  <si>
-    <t>new_recovered</t>
-  </si>
-  <si>
-    <t>cumulative_recovered</t>
-  </si>
-  <si>
-    <t>active_cases</t>
-  </si>
-  <si>
-    <t>cases</t>
-  </si>
-  <si>
-    <t>rrt</t>
-  </si>
-  <si>
-    <t>srrt</t>
-  </si>
-  <si>
-    <t>mmu</t>
-  </si>
-  <si>
-    <t>phmu</t>
-  </si>
-  <si>
-    <t>surveillance</t>
-  </si>
-  <si>
-    <t>samples_sent</t>
-  </si>
-  <si>
-    <t>reports_received</t>
-  </si>
-  <si>
-    <t>reports_pending</t>
-  </si>
-  <si>
-    <t>positive_report</t>
-  </si>
-  <si>
-    <t>negative_report</t>
-  </si>
-  <si>
-    <t>doses_today</t>
-  </si>
-  <si>
-    <t>doses_total</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -155,15 +51,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,28 +428,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>medical_advice</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>counselling</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>complaint</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -503,31 +479,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>number_of</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>total_isolation_beds</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>total_icu_beds</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>total_beds</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>total_ventilators</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -545,37 +535,55 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>district</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>new_positive</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>cumulative_positive</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>new_deaths</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>cumulative_deaths</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>new_recovered</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>cumulative_recovered</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>active_cases</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -593,16 +601,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>cases</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -620,28 +632,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rrt</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>srrt</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>mmu</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>phmu</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>surveillance</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -659,28 +683,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>samples_sent</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>reports_received</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>reports_pending</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>positive_report</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>negative_report</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -698,22 +734,30 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>district</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>doses_today</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>doses_total</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -731,6 +775,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>